--- a/sources/data.xlsx
+++ b/sources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D478FC2-A9E6-4CAB-889D-20D5691A7DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A67518-DAF3-4506-A5F3-151359E7EF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="8180" xr2:uid="{F12530EB-6131-4FCB-A65B-DE99E738297D}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Alba</t>
   </si>
   <si>
-    <t xml:space="preserve">County </t>
-  </si>
-  <si>
     <t>Arad</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Mures</t>
   </si>
   <si>
-    <t>Neamtt</t>
-  </si>
-  <si>
     <t>Olt</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>misc</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Neamt</t>
   </si>
 </sst>
 </file>
@@ -548,9 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEC4277-A0E3-4C73-BCC9-DA238430101C}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -559,19 +557,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -593,7 +591,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -610,7 +608,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -627,7 +625,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -644,7 +642,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -661,7 +659,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -678,7 +676,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -695,7 +693,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -712,7 +710,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -729,7 +727,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -746,7 +744,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -763,7 +761,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -780,7 +778,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -797,7 +795,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -814,7 +812,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -831,7 +829,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -848,7 +846,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -865,7 +863,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -882,7 +880,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -899,7 +897,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -916,7 +914,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -933,7 +931,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -950,7 +948,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -967,7 +965,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -984,7 +982,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1001,7 +999,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1018,7 +1016,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1035,7 +1033,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1052,7 +1050,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1069,7 +1067,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1086,7 +1084,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1103,7 +1101,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1120,7 +1118,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1137,7 +1135,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1154,7 +1152,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1171,7 +1169,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1188,7 +1186,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1205,7 +1203,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1222,7 +1220,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1239,7 +1237,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1256,7 +1254,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>2</v>

--- a/sources/data.xlsx
+++ b/sources/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricia\MAP-NTX-\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A67518-DAF3-4506-A5F3-151359E7EF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169EA03-D3A7-4A4C-BF65-31E86495CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="8180" xr2:uid="{F12530EB-6131-4FCB-A65B-DE99E738297D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Alba</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Harghita</t>
   </si>
   <si>
-    <t>Hundedoara</t>
-  </si>
-  <si>
     <t>Ialomita</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t>Neamt</t>
+  </si>
+  <si>
+    <t>Hunedoara</t>
+  </si>
+  <si>
+    <t>Gorj</t>
   </si>
 </sst>
 </file>
@@ -546,9 +549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEC4277-A0E3-4C73-BCC9-DA238430101C}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -557,19 +562,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -900,21 +905,21 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -931,7 +936,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -948,7 +953,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -965,7 +970,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -982,7 +987,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -999,7 +1004,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1016,7 +1021,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1033,7 +1038,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1050,7 +1055,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1067,7 +1072,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1084,7 +1089,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1101,7 +1106,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1118,7 +1123,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1135,7 +1140,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1152,7 +1157,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1169,7 +1174,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1186,7 +1191,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1203,7 +1208,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1220,7 +1225,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1237,7 +1242,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1254,7 +1259,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1266,6 +1271,23 @@
         <v>4</v>
       </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
         <v>3</v>
       </c>
     </row>

--- a/sources/data.xlsx
+++ b/sources/data.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricia\MAP-NTX-\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169EA03-D3A7-4A4C-BF65-31E86495CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AF5443-26B4-40AD-B7BB-3F765DD9546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="8180" xr2:uid="{F12530EB-6131-4FCB-A65B-DE99E738297D}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{F12530EB-6131-4FCB-A65B-DE99E738297D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Auchan" sheetId="2" r:id="rId2"/>
+    <sheet name="Lidl" sheetId="3" r:id="rId3"/>
+    <sheet name="Kaufland" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>Alba</t>
   </si>
@@ -177,13 +180,148 @@
   </si>
   <si>
     <t>Gorj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magazin </t>
+  </si>
+  <si>
+    <t>Timisoara Iulius</t>
+  </si>
+  <si>
+    <t>Timisoara Nord</t>
+  </si>
+  <si>
+    <t>Timisoara Sud</t>
+  </si>
+  <si>
+    <t>Oradea</t>
+  </si>
+  <si>
+    <t>Deva</t>
+  </si>
+  <si>
+    <t>Baia Mare</t>
+  </si>
+  <si>
+    <t>Brasov Vest</t>
+  </si>
+  <si>
+    <t>Brasov Coresi</t>
+  </si>
+  <si>
+    <t>Cluj Iulius</t>
+  </si>
+  <si>
+    <t>Cluj Nord / Iris</t>
+  </si>
+  <si>
+    <t>Targu Mures</t>
+  </si>
+  <si>
+    <t>Targu Mures Sud</t>
+  </si>
+  <si>
+    <t>Iasi city</t>
+  </si>
+  <si>
+    <t>Craiova Electroputere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craiova Craiovita </t>
+  </si>
+  <si>
+    <t>Pitesti Bradu</t>
+  </si>
+  <si>
+    <t>Pitesti Gavana</t>
+  </si>
+  <si>
+    <t>Ploiesti</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Militari</t>
+  </si>
+  <si>
+    <t>Crangasi city</t>
+  </si>
+  <si>
+    <t>Berceni</t>
+  </si>
+  <si>
+    <t>Cotroceni</t>
+  </si>
+  <si>
+    <t>Vitan</t>
+  </si>
+  <si>
+    <t>Pallady</t>
+  </si>
+  <si>
+    <t>Drumul Taberei</t>
+  </si>
+  <si>
+    <t>Constanta Nord / Maritimo</t>
+  </si>
+  <si>
+    <t>Constanta Sud</t>
+  </si>
+  <si>
+    <t>SUPER</t>
+  </si>
+  <si>
+    <t>La Strada</t>
+  </si>
+  <si>
+    <t>Turda</t>
+  </si>
+  <si>
+    <t>Obor</t>
+  </si>
+  <si>
+    <t>Buziasului- Timisoara</t>
+  </si>
+  <si>
+    <t>Miroslava</t>
+  </si>
+  <si>
+    <t>Bucium</t>
+  </si>
+  <si>
+    <t>U Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosnita </t>
+  </si>
+  <si>
+    <t>Exigent</t>
+  </si>
+  <si>
+    <t>Logistica deva</t>
+  </si>
+  <si>
+    <t>Logistica stefanesti fresh</t>
+  </si>
+  <si>
+    <t>Logistica Stefanesti ambiant</t>
+  </si>
+  <si>
+    <t>Bistrita</t>
+  </si>
+  <si>
+    <t>Nr Mag</t>
+  </si>
+  <si>
+    <t>Nr mag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,16 +330,68 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,17 +399,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -230,6 +511,77 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D3EA262E-3F09-4BD6-9F82-50A9E37D5927}" name="Table4" displayName="Table4" ref="A1:E43" totalsRowShown="0">
+  <autoFilter ref="A1:E43" xr:uid="{D3EA262E-3F09-4BD6-9F82-50A9E37D5927}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+    <sortCondition ref="A1:A43"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C64E378F-1FCB-434D-8BFF-C5A56266F978}" name="County"/>
+    <tableColumn id="2" xr3:uid="{4B2FDC67-6594-41E5-AA1A-318B445CA635}" name="Kaufland">
+      <calculatedColumnFormula>Kaufland!B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1D68CE2E-0089-4D9E-8A54-93F9E26A7797}" name="Lidl">
+      <calculatedColumnFormula>Table1[[#This Row],[Nr mag]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9392868D-A85E-4703-BFF6-3D3AF3786893}" name="Auchan">
+      <calculatedColumnFormula>Table2[[#This Row],[Nr Mag]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{173047E3-4D40-4C7A-84CC-89C5003AFE16}" name="misc"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F9F4644-A883-4F05-8859-1658CBE999EC}" name="Table2" displayName="Table2" ref="E1:F43" totalsRowShown="0">
+  <autoFilter ref="E1:F43" xr:uid="{5F9F4644-A883-4F05-8859-1658CBE999EC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F43">
+    <sortCondition ref="E1:E43"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EE79F29F-DD6F-4BDA-AAB1-6919375EEE35}" name="County"/>
+    <tableColumn id="2" xr3:uid="{B0931DD3-E0FB-4A1C-BC3B-2050DD216A90}" name="Nr Mag">
+      <calculatedColumnFormula>COUNTIF($C$2:$C$47,$E2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16D37EAC-74FD-4A16-93DC-4B2E6A51EF32}" name="Table1" displayName="Table1" ref="A1:B44" totalsRowCount="1" headerRowDxfId="1" headerRowBorderDxfId="3">
+  <autoFilter ref="A1:B43" xr:uid="{16D37EAC-74FD-4A16-93DC-4B2E6A51EF32}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
+    <sortCondition ref="A1:A43"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F4E36450-D03D-429B-AA7D-5A18A153EE10}" name="County" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BFF3C7AB-963B-4782-852A-20B162E4F931}" name="Nr mag" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(B2:B43)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7EE8F663-834E-49A1-9377-4E6629069C79}" name="Table3" displayName="Table3" ref="A1:B44" totalsRowCount="1">
+  <autoFilter ref="A1:B43" xr:uid="{7EE8F663-834E-49A1-9377-4E6629069C79}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
+    <sortCondition ref="A1:A43"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8A730780-B1B0-42E2-8F33-B49ED19EF985}" name="County"/>
+    <tableColumn id="2" xr3:uid="{D56A91A9-1748-4A44-A9BA-2FF99C2E9DBB}" name="Nr mag" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table3[Nr mag])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,13 +903,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEC4277-A0E3-4C73-BCC9-DA238430101C}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.87890625" customWidth="1"/>
+    <col min="2" max="2" width="9.41015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
@@ -582,13 +935,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <f>Kaufland!B2</f>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -599,13 +955,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <f>Kaufland!B3</f>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -616,12 +975,15 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <f>Kaufland!B4</f>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>12</v>
       </c>
       <c r="D4">
+        <f>Table2[[#This Row],[Nr Mag]]</f>
         <v>4</v>
       </c>
       <c r="E4">
@@ -633,13 +995,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <f>Kaufland!B5</f>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -650,13 +1015,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <f>Kaufland!B6</f>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -667,13 +1035,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <f>Kaufland!B7</f>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -684,13 +1055,16 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <f>Kaufland!B8</f>
         <v>2</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -698,16 +1072,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
+        <f>Kaufland!B9</f>
         <v>2</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -715,16 +1092,19 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <f>Kaufland!B10</f>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -735,13 +1115,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <f>Kaufland!B11</f>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -752,13 +1135,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <f>Kaufland!B12</f>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -766,16 +1152,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <f>Kaufland!B13</f>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -783,16 +1172,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <f>Kaufland!B14</f>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -803,13 +1195,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <f>Kaufland!B15</f>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -820,13 +1215,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <f>Kaufland!B16</f>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -837,13 +1235,16 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <f>Kaufland!B17</f>
         <v>2</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -854,13 +1255,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <f>Kaufland!B18</f>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -871,13 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <f>Kaufland!B19</f>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -888,13 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <f>Kaufland!B20</f>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -905,16 +1315,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <f>Kaufland!B21</f>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
@@ -922,13 +1335,16 @@
         <v>46</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <f>Kaufland!B22</f>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -939,13 +1355,16 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <f>Kaufland!B23</f>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -956,13 +1375,16 @@
         <v>45</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <f>Kaufland!B24</f>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -973,13 +1395,16 @@
         <v>21</v>
       </c>
       <c r="B25">
+        <f>Kaufland!B25</f>
         <v>2</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -990,13 +1415,16 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <f>Kaufland!B26</f>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1007,13 +1435,16 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <f>Kaufland!B27</f>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1024,13 +1455,16 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <f>Kaufland!B28</f>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1041,13 +1475,16 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <f>Kaufland!B29</f>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1058,13 +1495,16 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <f>Kaufland!B30</f>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1075,13 +1515,16 @@
         <v>44</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <f>Kaufland!B31</f>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1092,13 +1535,16 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <f>Kaufland!B32</f>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1109,13 +1555,16 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <f>Kaufland!B33</f>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1123,16 +1572,19 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34">
+        <f>Kaufland!B34</f>
         <v>2</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1140,16 +1592,19 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <f>Kaufland!B35</f>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1160,13 +1615,16 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <f>Kaufland!B36</f>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1177,13 +1635,16 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <f>Kaufland!B37</f>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1194,13 +1655,16 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <f>Kaufland!B38</f>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1211,13 +1675,16 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <f>Kaufland!B39</f>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>5</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1228,13 +1695,16 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <f>Kaufland!B40</f>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1242,16 +1712,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41">
+        <f>Kaufland!B41</f>
         <v>2</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1259,16 +1732,19 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <f>Kaufland!B42</f>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1279,19 +1755,1603 @@
         <v>38</v>
       </c>
       <c r="B43">
+        <f>Kaufland!B43</f>
         <v>2</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <f>Table1[[#This Row],[Nr mag]]</f>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <f>Table2[[#This Row],[Nr Mag]]</f>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942B86C4-89F0-4CA5-96C0-078048FA12D3}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5859375" customWidth="1"/>
+    <col min="2" max="2" width="29.703125" customWidth="1"/>
+    <col min="5" max="5" width="19.1171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF($C$2:$C$47,$E2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF($C$2:$C$47,$E3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF($C$2:$C$47,$E4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF($C$2:$C$47,$E5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF($C$2:$C$47,$E6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIF($C$2:$C$47,$E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF($C$2:$C$47,$E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF($C$2:$C$47,$E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF($C$2:$C$47,$E10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF($C$2:$C$47,$E11)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF($C$2:$C$47,$E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF($C$2:$C$47,$E13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF($C$2:$C$47,$E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF($C$2:$C$47,$E15)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF($C$2:$C$47,$E16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF($C$2:$C$47,$E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF($C$2:$C$47,$E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIF($C$2:$C$47,$E19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIF($C$2:$C$47,$E20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIF($C$2:$C$47,$E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIF($C$2:$C$47,$E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIF($C$2:$C$47,$E23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIF($C$2:$C$47,$E24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIF($C$2:$C$47,$E25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIF($C$2:$C$47,$E26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIF($C$2:$C$47,$E27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIF($C$2:$C$47,$E28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF($C$2:$C$47,$E29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIF($C$2:$C$47,$E30)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIF($C$2:$C$47,$E31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF($C$2:$C$47,$E32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIF($C$2:$C$47,$E33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <f>COUNTIF($C$2:$C$47,$E34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIF($C$2:$C$47,$E35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIF($C$2:$C$47,$E36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIF($C$2:$C$47,$E37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="3">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38">
+        <f>COUNTIF($C$2:$C$47,$E38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <f>COUNTIF($C$2:$C$47,$E39)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIF($C$2:$C$47,$E40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="3">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41">
+        <f>COUNTIF($C$2:$C$47,$E41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="3">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <f>COUNTIF($C$2:$C$47,$E42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="3">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43">
+        <f>COUNTIF($C$2:$C$47,$E43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="3">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <f>SUM(F2:F43)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45" s="3">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A46" s="3">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A47" s="3">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503EF91-E03E-461C-ABFB-E8C6E2AC592F}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="17.8203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5859375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="7"/>
+      <c r="B44">
+        <f>SUM(B2:B43)</f>
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E55B7-2054-48A6-B2B1-A1F68AB76F87}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="9.76171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B44">
+        <f>SUM(Table3[Nr mag])</f>
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>